--- a/paper_list_总结.xlsx
+++ b/paper_list_总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13848" windowHeight="7115"/>
+    <workbookView windowWidth="14280" windowHeight="8244"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Title</t>
   </si>
@@ -76,6 +76,23 @@
   </si>
   <si>
     <t>实验只恢复灰度图像；模型针对单个质量因素。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantization Guided JPEG Artifact Correction
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gitlab.com/Queuecumber/quantization-guided-ac
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.之前的模型都是针对单个质量因素，不适用于现实场景
+</t>
+  </si>
+  <si>
+    <t>1.用jpeg文件里的量化矩阵生成卷积的权重，从而对DCT系数做恢复处理。依据是认为量化矩阵里包含了帮助DCT系数恢复的信息。
+2.同时用GAN loss微调恢复纹理
+3.该方法完全基于DCT域</t>
   </si>
 </sst>
 </file>
@@ -691,11 +708,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1009,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="37.8888888888889" customWidth="1"/>
     <col min="5" max="5" width="22.4444444444444" customWidth="1"/>
@@ -1076,7 +1099,27 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" ht="292" customHeight="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://gitlab.com/Queuecumber/quantization-guided-ac&#10;"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
